--- a/Sprint 2/Sprint Backlog.xlsx
+++ b/Sprint 2/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51177E93-16BB-4570-A2E2-9D6D90B831FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90988EF-D2DE-436A-88C2-54A648FBC3A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{000ECAD2-D550-4890-BC90-DE2A0E4F5749}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="69">
   <si>
     <t>Tarefa</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>Criar ligação com API</t>
+  </si>
+  <si>
+    <t>Terminado</t>
+  </si>
+  <si>
+    <t>MODELO DE DOMINIO</t>
   </si>
 </sst>
 </file>
@@ -659,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AB42AE-19BF-4DD3-AA1B-EDFA87DA995C}">
-  <dimension ref="B3:F234"/>
+  <dimension ref="B3:F235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +707,9 @@
       <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F5" s="4" t="s">
         <v>38</v>
       </c>
@@ -716,7 +724,9 @@
       <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F6" s="4" t="s">
         <v>40</v>
       </c>
@@ -731,7 +741,9 @@
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F7" s="4" t="s">
         <v>39</v>
       </c>
@@ -747,7 +759,9 @@
         <v>28</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -760,7 +774,9 @@
         <v>28</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
@@ -773,7 +789,9 @@
         <v>28</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
@@ -785,7 +803,9 @@
       <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F11" s="4" t="s">
         <v>38</v>
       </c>
@@ -815,7 +835,9 @@
       <c r="D13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F13" s="4" t="s">
         <v>39</v>
       </c>
@@ -831,7 +853,9 @@
         <v>28</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
@@ -844,7 +868,9 @@
         <v>28</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
@@ -857,7 +883,9 @@
         <v>28</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
@@ -869,7 +897,9 @@
       <c r="D17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F17" s="4" t="s">
         <v>38</v>
       </c>
@@ -901,7 +931,7 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -915,7 +945,9 @@
         <v>28</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="21" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -928,7 +960,9 @@
         <v>28</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="22" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
@@ -941,11 +975,13 @@
         <v>28</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -953,14 +989,16 @@
       <c r="D23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -968,14 +1006,16 @@
       <c r="D24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F24" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -983,14 +1023,16 @@
       <c r="D25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F25" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -998,14 +1040,16 @@
       <c r="D26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F26" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
@@ -1013,14 +1057,16 @@
       <c r="D27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F27" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -1028,43 +1074,50 @@
       <c r="D28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F28" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="30" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>36</v>
@@ -1075,10 +1128,10 @@
     </row>
     <row r="32" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>36</v>
@@ -1089,10 +1142,10 @@
     </row>
     <row r="33" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>36</v>
@@ -1103,10 +1156,10 @@
     </row>
     <row r="34" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>36</v>
@@ -1117,18 +1170,21 @@
     </row>
     <row r="35" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C35" s="4">
         <v>3</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>65</v>
+        <v>36</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="4">
         <v>3</v>
@@ -1139,7 +1195,7 @@
     </row>
     <row r="37" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="4">
         <v>3</v>
@@ -1150,7 +1206,7 @@
     </row>
     <row r="38" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="4">
         <v>3</v>
@@ -1161,7 +1217,7 @@
     </row>
     <row r="39" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="4">
         <v>3</v>
@@ -1172,7 +1228,7 @@
     </row>
     <row r="40" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="4">
         <v>3</v>
@@ -1183,21 +1239,21 @@
     </row>
     <row r="41" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="4">
         <v>3</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>36</v>
@@ -1205,10 +1261,10 @@
     </row>
     <row r="43" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>36</v>
@@ -1216,10 +1272,10 @@
     </row>
     <row r="44" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>36</v>
@@ -1227,10 +1283,10 @@
     </row>
     <row r="45" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>36</v>
@@ -1238,10 +1294,10 @@
     </row>
     <row r="46" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>36</v>
@@ -1249,7 +1305,7 @@
     </row>
     <row r="47" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" s="4">
         <v>3</v>
@@ -1260,10 +1316,10 @@
     </row>
     <row r="48" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>36</v>
@@ -1271,10 +1327,10 @@
     </row>
     <row r="49" spans="2:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>36</v>
@@ -1282,21 +1338,21 @@
     </row>
     <row r="50" spans="2:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="4">
+        <v>4</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="4">
-        <v>3</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="C51" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>36</v>
@@ -1304,10 +1360,10 @@
     </row>
     <row r="52" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>36</v>
@@ -1315,7 +1371,7 @@
     </row>
     <row r="53" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="4">
         <v>3</v>
@@ -1326,10 +1382,10 @@
     </row>
     <row r="54" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>36</v>
@@ -1337,10 +1393,10 @@
     </row>
     <row r="55" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>36</v>
@@ -1348,10 +1404,10 @@
     </row>
     <row r="56" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>36</v>
@@ -1359,10 +1415,10 @@
     </row>
     <row r="57" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>36</v>
@@ -1370,10 +1426,10 @@
     </row>
     <row r="58" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>36</v>
@@ -1381,16 +1437,26 @@
     </row>
     <row r="59" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="4">
+        <v>3</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C60" s="4">
         <v>5</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D60" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="61" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1565,6 +1631,7 @@
     <row r="232" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="233" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="234" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sprint 2/Sprint Backlog.xlsx
+++ b/Sprint 2/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90988EF-D2DE-436A-88C2-54A648FBC3A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098C4C07-F11D-48E2-8978-04F1F46F7781}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{000ECAD2-D550-4890-BC90-DE2A0E4F5749}"/>
   </bookViews>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AB42AE-19BF-4DD3-AA1B-EDFA87DA995C}">
   <dimension ref="B3:F235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sprint 2/Sprint Backlog.xlsx
+++ b/Sprint 2/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098C4C07-F11D-48E2-8978-04F1F46F7781}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B5F1DB-0387-4BDE-9282-523D0BDF637F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{000ECAD2-D550-4890-BC90-DE2A0E4F5749}"/>
   </bookViews>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AB42AE-19BF-4DD3-AA1B-EDFA87DA995C}">
   <dimension ref="B3:F235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sprint 2/Sprint Backlog.xlsx
+++ b/Sprint 2/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B5F1DB-0387-4BDE-9282-523D0BDF637F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7836FA8-DE60-46C5-AE0C-1FA839089B81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{000ECAD2-D550-4890-BC90-DE2A0E4F5749}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="69">
   <si>
     <t>Tarefa</t>
   </si>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AB42AE-19BF-4DD3-AA1B-EDFA87DA995C}">
   <dimension ref="B3:F235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +820,9 @@
       <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F12" s="4" t="s">
         <v>40</v>
       </c>
@@ -852,7 +854,9 @@
       <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F14" s="4" t="s">
         <v>38</v>
       </c>
@@ -867,7 +871,9 @@
       <c r="D15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F15" s="4" t="s">
         <v>39</v>
       </c>
@@ -914,7 +920,9 @@
       <c r="D18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F18" s="4" t="s">
         <v>40</v>
       </c>
@@ -929,7 +937,9 @@
       <c r="D19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F19" s="4" t="s">
         <v>37</v>
       </c>
@@ -944,7 +954,9 @@
       <c r="D20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F20" s="4" t="s">
         <v>37</v>
       </c>
@@ -959,7 +971,9 @@
       <c r="D21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F21" s="4" t="s">
         <v>37</v>
       </c>

--- a/Sprint 2/Sprint Backlog.xlsx
+++ b/Sprint 2/Sprint Backlog.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\Sprint 2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7836FA8-DE60-46C5-AE0C-1FA839089B81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{000ECAD2-D550-4890-BC90-DE2A0E4F5749}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="69">
   <si>
     <t>Tarefa</t>
   </si>
@@ -246,7 +240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -657,18 +651,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AB42AE-19BF-4DD3-AA1B-EDFA87DA995C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +752,9 @@
       <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F8" s="4" t="s">
         <v>38</v>
       </c>

--- a/Sprint 2/Sprint Backlog.xlsx
+++ b/Sprint 2/Sprint Backlog.xlsx
@@ -1,53 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="69">
   <si>
     <t>Tarefa</t>
   </si>
   <si>
+    <t>Exigência (1 - 5)</t>
+  </si>
+  <si>
+    <t>Domínio</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
     <t>Assign</t>
   </si>
   <si>
-    <t>Estado</t>
-  </si>
-  <si>
     <t>UC1 DSQ</t>
   </si>
   <si>
+    <t>Análise</t>
+  </si>
+  <si>
+    <t>Terminado</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
     <t>UC2 DSQ</t>
   </si>
   <si>
+    <t>Anibal</t>
+  </si>
+  <si>
     <t>UC3 DSQ</t>
   </si>
   <si>
+    <t>Vitor</t>
+  </si>
+  <si>
     <t>UC4 DSQ</t>
   </si>
   <si>
@@ -75,25 +82,28 @@
     <t>UC6 SSD</t>
   </si>
   <si>
-    <t>Domínio</t>
-  </si>
-  <si>
     <t>UC1 DClasses</t>
   </si>
   <si>
     <t>UC2 DClasses</t>
   </si>
   <si>
+    <t>UC3 DClasses</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>UC4 DClasses</t>
+  </si>
+  <si>
     <t>UC5 DClasses</t>
   </si>
   <si>
     <t>UC6 DClasses</t>
   </si>
   <si>
-    <t>UC4 DClasses</t>
-  </si>
-  <si>
-    <t>UC3 DClasses</t>
+    <t>MODELO DE DOMINIO</t>
   </si>
   <si>
     <t>UC1 MD</t>
@@ -114,15 +124,12 @@
     <t>UC6 MD</t>
   </si>
   <si>
-    <t>Análise</t>
-  </si>
-  <si>
-    <t>Exigência (1 - 5)</t>
-  </si>
-  <si>
     <t>Testes Unitarios UC1</t>
   </si>
   <si>
+    <t>Implementação</t>
+  </si>
+  <si>
     <t>Testes Unitarios UC2</t>
   </si>
   <si>
@@ -138,24 +145,12 @@
     <t>Testes Unitarios UC6</t>
   </si>
   <si>
-    <t>Implementação</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Julio</t>
-  </si>
-  <si>
-    <t>Vitor</t>
-  </si>
-  <si>
-    <t>Anibal</t>
-  </si>
-  <si>
     <t>Criar Interface Gráfica UC1</t>
   </si>
   <si>
+    <t>UI</t>
+  </si>
+  <si>
     <t>Criar Interface Gráfica UC2</t>
   </si>
   <si>
@@ -225,28 +220,25 @@
     <t>Ligar UI a CTRL UC6</t>
   </si>
   <si>
-    <t>UI</t>
-  </si>
-  <si>
     <t>Criar ligação com API</t>
-  </si>
-  <si>
-    <t>Terminado</t>
-  </si>
-  <si>
-    <t>MODELO DE DOMINIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(\$* #.##0_);_(\$* \(#.##0\);_(\$* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #.##0_ ;_ * \-#.##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,###.##000_ ;_ * \-#,###.##000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(\$* #,###.##000_);_(\$* \(#,###.##000\);_(\$* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,17 +246,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,12 +410,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -288,75 +611,361 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Verificar Célula" xfId="1" builtinId="23"/>
+    <cellStyle name="60% - Cor 6" xfId="2" builtinId="52"/>
+    <cellStyle name="Vírgula [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Vírgula" xfId="4" builtinId="3"/>
+    <cellStyle name="Nota" xfId="5" builtinId="10"/>
+    <cellStyle name="Moeda [0]" xfId="6" builtinId="7"/>
+    <cellStyle name="Hiperligação" xfId="7" builtinId="8"/>
+    <cellStyle name="Moeda" xfId="8" builtinId="4"/>
+    <cellStyle name="Hiperligação Visitada" xfId="9" builtinId="9"/>
+    <cellStyle name="40% - Cor 5" xfId="10" builtinId="47"/>
+    <cellStyle name="Percentagem" xfId="11" builtinId="5"/>
+    <cellStyle name="Texto de Aviso" xfId="12" builtinId="11"/>
+    <cellStyle name="Título" xfId="13" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="14" builtinId="53"/>
+    <cellStyle name="Cabeçalho 1" xfId="15" builtinId="16"/>
+    <cellStyle name="Cabeçalho 2" xfId="16" builtinId="17"/>
+    <cellStyle name="20% - Cor 1" xfId="17" builtinId="30"/>
+    <cellStyle name="Cabeçalho 3" xfId="18" builtinId="18"/>
+    <cellStyle name="20% - Cor 2" xfId="19" builtinId="34"/>
+    <cellStyle name="Cabeçalho 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Mau" xfId="21" builtinId="27"/>
+    <cellStyle name="Entrada" xfId="22" builtinId="20"/>
+    <cellStyle name="Cor 2" xfId="23" builtinId="33"/>
+    <cellStyle name="Saída" xfId="24" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="25" builtinId="22"/>
+    <cellStyle name="Célula Ligada" xfId="26" builtinId="24"/>
+    <cellStyle name="Total" xfId="27" builtinId="25"/>
+    <cellStyle name="60% - Cor 2" xfId="28" builtinId="36"/>
+    <cellStyle name="Bom" xfId="29" builtinId="26"/>
+    <cellStyle name="40% - Cor 3" xfId="30" builtinId="39"/>
+    <cellStyle name="Neutro" xfId="31" builtinId="28"/>
+    <cellStyle name="Cor 1" xfId="32" builtinId="29"/>
+    <cellStyle name="40% - Cor 1" xfId="33" builtinId="31"/>
+    <cellStyle name="60% - Cor 1" xfId="34" builtinId="32"/>
+    <cellStyle name="40% - Cor 2" xfId="35" builtinId="35"/>
+    <cellStyle name="Cor 3" xfId="36" builtinId="37"/>
+    <cellStyle name="20% - Cor 3" xfId="37" builtinId="38"/>
+    <cellStyle name="60% - Cor 3" xfId="38" builtinId="40"/>
+    <cellStyle name="Cor 4" xfId="39" builtinId="41"/>
+    <cellStyle name="20% - Cor 4" xfId="40" builtinId="42"/>
+    <cellStyle name="40% - Cor 4" xfId="41" builtinId="43"/>
+    <cellStyle name="60% - Cor 4" xfId="42" builtinId="44"/>
+    <cellStyle name="Cor 5" xfId="43" builtinId="45"/>
+    <cellStyle name="20% - Cor 5" xfId="44" builtinId="46"/>
+    <cellStyle name="60% - Cor 5" xfId="45" builtinId="48"/>
+    <cellStyle name="Cor 6" xfId="46" builtinId="49"/>
+    <cellStyle name="20% - Cor 6" xfId="47" builtinId="50"/>
+    <cellStyle name="40% - Cor 6" xfId="48" builtinId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -405,7 +1014,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -438,26 +1047,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -490,23 +1082,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -648,1003 +1223,1002 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B3:F235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="20.7142857142857" customWidth="1"/>
+    <col min="4" max="5" width="18.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="28.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="15.75"/>
+    <row r="4" ht="21.75" customHeight="1" spans="2:6">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" customHeight="1" spans="2:6">
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" customHeight="1" spans="2:6">
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="40.5" customHeight="1" spans="2:6">
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" customHeight="1" spans="2:6">
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" customHeight="1" spans="2:6">
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="40.5" customHeight="1" spans="2:6">
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="F10" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" customHeight="1" spans="2:6">
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" customHeight="1" spans="2:6">
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" customHeight="1" spans="2:6">
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="40.5" customHeight="1" spans="2:6">
       <c r="B14" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="40.5" customHeight="1" spans="2:6">
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="40.5" customHeight="1" spans="2:6">
       <c r="B16" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="F16" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" ht="40.5" customHeight="1" spans="2:6">
       <c r="B17" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" ht="40.5" customHeight="1" spans="2:6">
       <c r="B18" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" ht="40.5" customHeight="1" spans="2:6">
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" ht="40.5" customHeight="1" spans="2:6">
       <c r="B20" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" ht="40.5" customHeight="1" spans="2:6">
       <c r="B21" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" ht="40.5" customHeight="1" spans="2:6">
+      <c r="B22" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" ht="40.5" customHeight="1" spans="2:6">
       <c r="B23" s="4" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" ht="40.5" customHeight="1" spans="2:6">
       <c r="B24" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" ht="40.5" customHeight="1" spans="2:6">
       <c r="B25" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" ht="40.5" customHeight="1" spans="2:6">
       <c r="B26" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" ht="40.5" customHeight="1" spans="2:6">
       <c r="B27" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" ht="40.5" customHeight="1" spans="2:6">
       <c r="B28" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" ht="40.5" customHeight="1" spans="2:6">
       <c r="B29" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" ht="40.5" customHeight="1" spans="2:6">
       <c r="B30" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C30" s="4">
         <v>3</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" ht="40.5" customHeight="1" spans="2:6">
+      <c r="B31" s="4" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="C31" s="4">
         <v>2</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" ht="40.5" customHeight="1" spans="2:6">
       <c r="B32" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C32" s="4">
         <v>4</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" ht="40.5" customHeight="1" spans="2:6">
       <c r="B33" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C33" s="4">
         <v>3</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" ht="40.5" customHeight="1" spans="2:6">
       <c r="B34" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C34" s="4">
         <v>2</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" ht="40.5" customHeight="1" spans="2:6">
       <c r="B35" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C35" s="4">
         <v>3</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" ht="40.5" customHeight="1" spans="2:4">
       <c r="B36" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C36" s="4">
         <v>3</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" ht="40.5" customHeight="1" spans="2:4">
       <c r="B37" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C37" s="4">
         <v>3</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" ht="40.5" customHeight="1" spans="2:4">
       <c r="B38" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C38" s="4">
         <v>3</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" ht="40.5" customHeight="1" spans="2:4">
       <c r="B39" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C39" s="4">
         <v>3</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" ht="40.5" customHeight="1" spans="2:4">
       <c r="B40" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C40" s="4">
         <v>3</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" ht="40.5" customHeight="1" spans="2:4">
       <c r="B41" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C41" s="4">
         <v>3</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" ht="40.5" customHeight="1" spans="2:4">
       <c r="B42" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C42" s="4">
         <v>3</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" ht="40.5" customHeight="1" spans="2:4">
       <c r="B43" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C43" s="4">
         <v>2</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" ht="40.5" customHeight="1" spans="2:4">
       <c r="B44" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C44" s="4">
         <v>4</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" ht="40.5" customHeight="1" spans="2:4">
       <c r="B45" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C45" s="4">
         <v>3</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" ht="40.5" customHeight="1" spans="2:4">
       <c r="B46" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C46" s="4">
         <v>2</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" ht="40.5" customHeight="1" spans="2:4">
       <c r="B47" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C47" s="4">
         <v>3</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" ht="40.5" customHeight="1" spans="2:4">
       <c r="B48" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C48" s="4">
         <v>3</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" ht="40.5" customHeight="1" spans="2:4">
       <c r="B49" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C49" s="4">
         <v>2</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" ht="40.5" customHeight="1" spans="2:4">
       <c r="B50" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C50" s="4">
         <v>4</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" ht="40.5" customHeight="1" spans="2:4">
       <c r="B51" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C51" s="4">
         <v>3</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" ht="44.25" customHeight="1" spans="2:4">
       <c r="B52" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" ht="44.25" customHeight="1" spans="2:4">
       <c r="B53" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C53" s="4">
         <v>3</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" ht="44.25" customHeight="1" spans="2:4">
       <c r="B54" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C54" s="4">
         <v>3</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" ht="44.25" customHeight="1" spans="2:4">
       <c r="B55" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C55" s="4">
         <v>2</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" ht="44.25" customHeight="1" spans="2:4">
       <c r="B56" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C56" s="4">
         <v>4</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" ht="44.25" customHeight="1" spans="2:4">
       <c r="B57" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C57" s="4">
         <v>3</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" ht="44.25" customHeight="1" spans="2:4">
       <c r="B58" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C58" s="4">
         <v>2</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" ht="44.25" customHeight="1" spans="2:4">
       <c r="B59" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C59" s="4">
         <v>3</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" ht="44.25" customHeight="1" spans="2:4">
       <c r="B60" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C60" s="4">
         <v>5</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" ht="44.25" customHeight="1"/>
+    <row r="62" ht="44.25" customHeight="1"/>
+    <row r="63" ht="44.25" customHeight="1"/>
+    <row r="64" ht="44.25" customHeight="1"/>
+    <row r="65" ht="44.25" customHeight="1"/>
+    <row r="66" ht="44.25" customHeight="1"/>
+    <row r="67" ht="44.25" customHeight="1"/>
+    <row r="68" ht="44.25" customHeight="1"/>
+    <row r="69" ht="44.25" customHeight="1"/>
+    <row r="70" ht="44.25" customHeight="1"/>
+    <row r="71" ht="44.25" customHeight="1"/>
+    <row r="72" ht="44.25" customHeight="1"/>
+    <row r="73" ht="44.25" customHeight="1"/>
+    <row r="74" ht="44.25" customHeight="1"/>
+    <row r="75" ht="44.25" customHeight="1"/>
+    <row r="76" ht="44.25" customHeight="1"/>
+    <row r="77" ht="44.25" customHeight="1"/>
+    <row r="78" ht="44.25" customHeight="1"/>
+    <row r="79" ht="44.25" customHeight="1"/>
+    <row r="80" ht="44.25" customHeight="1"/>
+    <row r="81" ht="44.25" customHeight="1"/>
+    <row r="82" ht="44.25" customHeight="1"/>
+    <row r="83" ht="44.25" customHeight="1"/>
+    <row r="84" ht="44.25" customHeight="1"/>
+    <row r="85" ht="44.25" customHeight="1"/>
+    <row r="86" ht="44.25" customHeight="1"/>
+    <row r="87" ht="44.25" customHeight="1"/>
+    <row r="88" ht="44.25" customHeight="1"/>
+    <row r="89" ht="44.25" customHeight="1"/>
+    <row r="90" ht="44.25" customHeight="1"/>
+    <row r="91" ht="44.25" customHeight="1"/>
+    <row r="92" ht="44.25" customHeight="1"/>
+    <row r="93" ht="44.25" customHeight="1"/>
+    <row r="94" ht="44.25" customHeight="1"/>
+    <row r="95" ht="44.25" customHeight="1"/>
+    <row r="96" ht="44.25" customHeight="1"/>
+    <row r="97" ht="44.25" customHeight="1"/>
+    <row r="98" ht="44.25" customHeight="1"/>
+    <row r="99" ht="44.25" customHeight="1"/>
+    <row r="100" ht="44.25" customHeight="1"/>
+    <row r="101" ht="44.25" customHeight="1"/>
+    <row r="102" ht="44.25" customHeight="1"/>
+    <row r="103" ht="44.25" customHeight="1"/>
+    <row r="104" ht="44.25" customHeight="1"/>
+    <row r="105" ht="44.25" customHeight="1"/>
+    <row r="106" ht="44.25" customHeight="1"/>
+    <row r="107" ht="44.25" customHeight="1"/>
+    <row r="108" ht="44.25" customHeight="1"/>
+    <row r="109" ht="44.25" customHeight="1"/>
+    <row r="110" ht="44.25" customHeight="1"/>
+    <row r="111" ht="44.25" customHeight="1"/>
+    <row r="112" ht="44.25" customHeight="1"/>
+    <row r="113" ht="44.25" customHeight="1"/>
+    <row r="114" ht="44.25" customHeight="1"/>
+    <row r="115" ht="44.25" customHeight="1"/>
+    <row r="116" ht="44.25" customHeight="1"/>
+    <row r="117" ht="44.25" customHeight="1"/>
+    <row r="118" ht="44.25" customHeight="1"/>
+    <row r="119" ht="44.25" customHeight="1"/>
+    <row r="120" ht="44.25" customHeight="1"/>
+    <row r="121" ht="44.25" customHeight="1"/>
+    <row r="122" ht="44.25" customHeight="1"/>
+    <row r="123" ht="44.25" customHeight="1"/>
+    <row r="124" ht="44.25" customHeight="1"/>
+    <row r="125" ht="44.25" customHeight="1"/>
+    <row r="126" ht="44.25" customHeight="1"/>
+    <row r="127" ht="44.25" customHeight="1"/>
+    <row r="128" ht="44.25" customHeight="1"/>
+    <row r="129" ht="44.25" customHeight="1"/>
+    <row r="130" ht="44.25" customHeight="1"/>
+    <row r="131" ht="44.25" customHeight="1"/>
+    <row r="132" ht="44.25" customHeight="1"/>
+    <row r="133" ht="44.25" customHeight="1"/>
+    <row r="134" ht="44.25" customHeight="1"/>
+    <row r="135" ht="44.25" customHeight="1"/>
+    <row r="136" ht="44.25" customHeight="1"/>
+    <row r="137" ht="44.25" customHeight="1"/>
+    <row r="138" ht="44.25" customHeight="1"/>
+    <row r="139" ht="44.25" customHeight="1"/>
+    <row r="140" ht="44.25" customHeight="1"/>
+    <row r="141" ht="44.25" customHeight="1"/>
+    <row r="142" ht="44.25" customHeight="1"/>
+    <row r="143" ht="44.25" customHeight="1"/>
+    <row r="144" ht="44.25" customHeight="1"/>
+    <row r="145" ht="44.25" customHeight="1"/>
+    <row r="146" ht="44.25" customHeight="1"/>
+    <row r="147" ht="44.25" customHeight="1"/>
+    <row r="148" ht="44.25" customHeight="1"/>
+    <row r="149" ht="44.25" customHeight="1"/>
+    <row r="150" ht="44.25" customHeight="1"/>
+    <row r="151" ht="44.25" customHeight="1"/>
+    <row r="152" ht="44.25" customHeight="1"/>
+    <row r="153" ht="44.25" customHeight="1"/>
+    <row r="154" ht="44.25" customHeight="1"/>
+    <row r="155" ht="44.25" customHeight="1"/>
+    <row r="156" ht="44.25" customHeight="1"/>
+    <row r="157" ht="44.25" customHeight="1"/>
+    <row r="158" ht="44.25" customHeight="1"/>
+    <row r="159" ht="44.25" customHeight="1"/>
+    <row r="160" ht="44.25" customHeight="1"/>
+    <row r="161" ht="44.25" customHeight="1"/>
+    <row r="162" ht="44.25" customHeight="1"/>
+    <row r="163" ht="44.25" customHeight="1"/>
+    <row r="164" ht="44.25" customHeight="1"/>
+    <row r="165" ht="44.25" customHeight="1"/>
+    <row r="166" ht="44.25" customHeight="1"/>
+    <row r="167" ht="44.25" customHeight="1"/>
+    <row r="168" ht="44.25" customHeight="1"/>
+    <row r="169" ht="44.25" customHeight="1"/>
+    <row r="170" ht="44.25" customHeight="1"/>
+    <row r="171" ht="44.25" customHeight="1"/>
+    <row r="172" ht="44.25" customHeight="1"/>
+    <row r="173" ht="44.25" customHeight="1"/>
+    <row r="174" ht="44.25" customHeight="1"/>
+    <row r="175" ht="44.25" customHeight="1"/>
+    <row r="176" ht="44.25" customHeight="1"/>
+    <row r="177" ht="44.25" customHeight="1"/>
+    <row r="178" ht="44.25" customHeight="1"/>
+    <row r="179" ht="44.25" customHeight="1"/>
+    <row r="180" ht="44.25" customHeight="1"/>
+    <row r="181" ht="44.25" customHeight="1"/>
+    <row r="182" ht="44.25" customHeight="1"/>
+    <row r="183" ht="44.25" customHeight="1"/>
+    <row r="184" ht="44.25" customHeight="1"/>
+    <row r="185" ht="44.25" customHeight="1"/>
+    <row r="186" ht="44.25" customHeight="1"/>
+    <row r="187" ht="44.25" customHeight="1"/>
+    <row r="188" ht="44.25" customHeight="1"/>
+    <row r="189" ht="44.25" customHeight="1"/>
+    <row r="190" ht="44.25" customHeight="1"/>
+    <row r="191" ht="44.25" customHeight="1"/>
+    <row r="192" ht="44.25" customHeight="1"/>
+    <row r="193" ht="44.25" customHeight="1"/>
+    <row r="194" ht="44.25" customHeight="1"/>
+    <row r="195" ht="44.25" customHeight="1"/>
+    <row r="196" ht="44.25" customHeight="1"/>
+    <row r="197" ht="44.25" customHeight="1"/>
+    <row r="198" ht="44.25" customHeight="1"/>
+    <row r="199" ht="44.25" customHeight="1"/>
+    <row r="200" ht="44.25" customHeight="1"/>
+    <row r="201" ht="44.25" customHeight="1"/>
+    <row r="202" ht="44.25" customHeight="1"/>
+    <row r="203" ht="44.25" customHeight="1"/>
+    <row r="204" ht="44.25" customHeight="1"/>
+    <row r="205" ht="44.25" customHeight="1"/>
+    <row r="206" ht="44.25" customHeight="1"/>
+    <row r="207" ht="44.25" customHeight="1"/>
+    <row r="208" ht="44.25" customHeight="1"/>
+    <row r="209" ht="44.25" customHeight="1"/>
+    <row r="210" ht="44.25" customHeight="1"/>
+    <row r="211" ht="44.25" customHeight="1"/>
+    <row r="212" ht="44.25" customHeight="1"/>
+    <row r="213" ht="44.25" customHeight="1"/>
+    <row r="214" ht="44.25" customHeight="1"/>
+    <row r="215" ht="44.25" customHeight="1"/>
+    <row r="216" ht="44.25" customHeight="1"/>
+    <row r="217" ht="44.25" customHeight="1"/>
+    <row r="218" ht="44.25" customHeight="1"/>
+    <row r="219" ht="44.25" customHeight="1"/>
+    <row r="220" ht="44.25" customHeight="1"/>
+    <row r="221" ht="44.25" customHeight="1"/>
+    <row r="222" ht="44.25" customHeight="1"/>
+    <row r="223" ht="44.25" customHeight="1"/>
+    <row r="224" ht="44.25" customHeight="1"/>
+    <row r="225" ht="44.25" customHeight="1"/>
+    <row r="226" ht="44.25" customHeight="1"/>
+    <row r="227" ht="44.25" customHeight="1"/>
+    <row r="228" ht="44.25" customHeight="1"/>
+    <row r="229" ht="44.25" customHeight="1"/>
+    <row r="230" ht="44.25" customHeight="1"/>
+    <row r="231" ht="44.25" customHeight="1"/>
+    <row r="232" ht="44.25" customHeight="1"/>
+    <row r="233" ht="44.25" customHeight="1"/>
+    <row r="234" ht="44.25" customHeight="1"/>
+    <row r="235" ht="44.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Sprint 2/Sprint Backlog.xlsx
+++ b/Sprint 2/Sprint Backlog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="70">
   <si>
     <t>Tarefa</t>
   </si>
@@ -221,19 +221,28 @@
   </si>
   <si>
     <t>Criar ligação com API</t>
+  </si>
+  <si>
+    <t>Dia 28/01
+Vitor: O que fizeste ontem: UC3 - SD,SSD/UC5-SD,SSD
+O que vais fazer hoje: Implementação testes e classe da classe enderecoPostal
+Dificuldades: nenhumas
+Aníbal: O que fizeste ontem: UC2 - SD,SSD,DC/UC6-SD,SSD
+O que vais fazer hoje: Implementação testes e classe da classe telefone
+Dificuldades: nenhumas
+Pedro: O que fizeste ontem: Modelo Dominio/UC3,4,5,6 Excerto modelo Dominio e DC UC 3,4,5, Criação Projeto e SprintBacklog
+O que vais fazer hoje: Implementação testes e classe da classe telefone
+Dificuldades: nenhumas
+Júlio: O que fizeste ontem: UC1 - Documentação/UC4 - SD, SSD
+O que vais fazer hoje:  Implementação testes e classe da classe enderecoPostal
+Dificuldades: nenhumas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(\$* #.##0_);_(\$* \(#.##0\);_(\$* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #.##0_ ;_ * \-#.##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,###.##000_ ;_ * \-#,###.##000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(\$* #,###.##000_);_(\$* \(#,###.##000\);_(\$* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,159 +258,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,198 +268,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -650,253 +322,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -910,58 +340,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Verificar Célula" xfId="1" builtinId="23"/>
-    <cellStyle name="60% - Cor 6" xfId="2" builtinId="52"/>
-    <cellStyle name="Vírgula [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Vírgula" xfId="4" builtinId="3"/>
-    <cellStyle name="Nota" xfId="5" builtinId="10"/>
-    <cellStyle name="Moeda [0]" xfId="6" builtinId="7"/>
-    <cellStyle name="Hiperligação" xfId="7" builtinId="8"/>
-    <cellStyle name="Moeda" xfId="8" builtinId="4"/>
-    <cellStyle name="Hiperligação Visitada" xfId="9" builtinId="9"/>
-    <cellStyle name="40% - Cor 5" xfId="10" builtinId="47"/>
-    <cellStyle name="Percentagem" xfId="11" builtinId="5"/>
-    <cellStyle name="Texto de Aviso" xfId="12" builtinId="11"/>
-    <cellStyle name="Título" xfId="13" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="14" builtinId="53"/>
-    <cellStyle name="Cabeçalho 1" xfId="15" builtinId="16"/>
-    <cellStyle name="Cabeçalho 2" xfId="16" builtinId="17"/>
-    <cellStyle name="20% - Cor 1" xfId="17" builtinId="30"/>
-    <cellStyle name="Cabeçalho 3" xfId="18" builtinId="18"/>
-    <cellStyle name="20% - Cor 2" xfId="19" builtinId="34"/>
-    <cellStyle name="Cabeçalho 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Mau" xfId="21" builtinId="27"/>
-    <cellStyle name="Entrada" xfId="22" builtinId="20"/>
-    <cellStyle name="Cor 2" xfId="23" builtinId="33"/>
-    <cellStyle name="Saída" xfId="24" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="25" builtinId="22"/>
-    <cellStyle name="Célula Ligada" xfId="26" builtinId="24"/>
-    <cellStyle name="Total" xfId="27" builtinId="25"/>
-    <cellStyle name="60% - Cor 2" xfId="28" builtinId="36"/>
-    <cellStyle name="Bom" xfId="29" builtinId="26"/>
-    <cellStyle name="40% - Cor 3" xfId="30" builtinId="39"/>
-    <cellStyle name="Neutro" xfId="31" builtinId="28"/>
-    <cellStyle name="Cor 1" xfId="32" builtinId="29"/>
-    <cellStyle name="40% - Cor 1" xfId="33" builtinId="31"/>
-    <cellStyle name="60% - Cor 1" xfId="34" builtinId="32"/>
-    <cellStyle name="40% - Cor 2" xfId="35" builtinId="35"/>
-    <cellStyle name="Cor 3" xfId="36" builtinId="37"/>
-    <cellStyle name="20% - Cor 3" xfId="37" builtinId="38"/>
-    <cellStyle name="60% - Cor 3" xfId="38" builtinId="40"/>
-    <cellStyle name="Cor 4" xfId="39" builtinId="41"/>
-    <cellStyle name="20% - Cor 4" xfId="40" builtinId="42"/>
-    <cellStyle name="40% - Cor 4" xfId="41" builtinId="43"/>
-    <cellStyle name="60% - Cor 4" xfId="42" builtinId="44"/>
-    <cellStyle name="Cor 5" xfId="43" builtinId="45"/>
-    <cellStyle name="20% - Cor 5" xfId="44" builtinId="46"/>
-    <cellStyle name="60% - Cor 5" xfId="45" builtinId="48"/>
-    <cellStyle name="Cor 6" xfId="46" builtinId="49"/>
-    <cellStyle name="20% - Cor 6" xfId="47" builtinId="50"/>
-    <cellStyle name="40% - Cor 6" xfId="48" builtinId="51"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1223,28 +609,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B3:F235"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:O235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="20.7142857142857" customWidth="1"/>
-    <col min="4" max="5" width="18.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="28.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="15.75"/>
-    <row r="4" ht="21.75" customHeight="1" spans="2:6">
+    <row r="4" spans="2:15" ht="21.75" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1261,7 +646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="40.5" customHeight="1" spans="2:6">
+    <row r="5" spans="2:15" ht="40.5" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1277,8 +662,18 @@
       <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" ht="40.5" customHeight="1" spans="2:6">
+      <c r="H5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15" ht="40.5" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1294,8 +689,16 @@
       <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" ht="40.5" customHeight="1" spans="2:6">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15" ht="40.5" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1311,8 +714,16 @@
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" ht="40.5" customHeight="1" spans="2:6">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="2:15" ht="40.5" customHeight="1">
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1328,8 +739,16 @@
       <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" ht="40.5" customHeight="1" spans="2:6">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="2:15" ht="40.5" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1343,8 +762,16 @@
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" ht="40.5" customHeight="1" spans="2:6">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="2:15" ht="40.5" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1360,8 +787,16 @@
       <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" ht="40.5" customHeight="1" spans="2:6">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="2:15" ht="40.5" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1377,8 +812,16 @@
       <c r="F11" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" ht="40.5" customHeight="1" spans="2:6">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="2:15" ht="40.5" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
@@ -1394,8 +837,16 @@
       <c r="F12" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" ht="40.5" customHeight="1" spans="2:6">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="2:15" ht="40.5" customHeight="1">
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
@@ -1411,8 +862,16 @@
       <c r="F13" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" ht="40.5" customHeight="1" spans="2:6">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="2:15" ht="40.5" customHeight="1">
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
@@ -1428,8 +887,16 @@
       <c r="F14" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" ht="40.5" customHeight="1" spans="2:6">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="2:15" ht="40.5" customHeight="1">
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1445,8 +912,16 @@
       <c r="F15" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" ht="40.5" customHeight="1" spans="2:6">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="2:15" ht="40.5" customHeight="1">
       <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
@@ -1463,7 +938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" ht="40.5" customHeight="1" spans="2:6">
+    <row r="17" spans="2:6" ht="40.5" customHeight="1">
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1480,7 +955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" ht="40.5" customHeight="1" spans="2:6">
+    <row r="18" spans="2:6" ht="40.5" customHeight="1">
       <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
@@ -1497,7 +972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" ht="40.5" customHeight="1" spans="2:6">
+    <row r="19" spans="2:6" ht="40.5" customHeight="1">
       <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
@@ -1514,7 +989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" ht="40.5" customHeight="1" spans="2:6">
+    <row r="20" spans="2:6" ht="40.5" customHeight="1">
       <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1531,7 +1006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" ht="40.5" customHeight="1" spans="2:6">
+    <row r="21" spans="2:6" ht="40.5" customHeight="1">
       <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
@@ -1548,7 +1023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" ht="40.5" customHeight="1" spans="2:6">
+    <row r="22" spans="2:6" ht="40.5" customHeight="1">
       <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
@@ -1563,7 +1038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" ht="40.5" customHeight="1" spans="2:6">
+    <row r="23" spans="2:6" ht="40.5" customHeight="1">
       <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
@@ -1580,7 +1055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" ht="40.5" customHeight="1" spans="2:6">
+    <row r="24" spans="2:6" ht="40.5" customHeight="1">
       <c r="B24" s="4" t="s">
         <v>30</v>
       </c>
@@ -1597,7 +1072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" ht="40.5" customHeight="1" spans="2:6">
+    <row r="25" spans="2:6" ht="40.5" customHeight="1">
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
@@ -1614,7 +1089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" ht="40.5" customHeight="1" spans="2:6">
+    <row r="26" spans="2:6" ht="40.5" customHeight="1">
       <c r="B26" s="4" t="s">
         <v>32</v>
       </c>
@@ -1631,7 +1106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" ht="40.5" customHeight="1" spans="2:6">
+    <row r="27" spans="2:6" ht="40.5" customHeight="1">
       <c r="B27" s="4" t="s">
         <v>33</v>
       </c>
@@ -1648,7 +1123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" ht="40.5" customHeight="1" spans="2:6">
+    <row r="28" spans="2:6" ht="40.5" customHeight="1">
       <c r="B28" s="4" t="s">
         <v>34</v>
       </c>
@@ -1665,7 +1140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" ht="40.5" customHeight="1" spans="2:6">
+    <row r="29" spans="2:6" ht="40.5" customHeight="1">
       <c r="B29" s="4" t="s">
         <v>35</v>
       </c>
@@ -1682,7 +1157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" ht="40.5" customHeight="1" spans="2:6">
+    <row r="30" spans="2:6" ht="40.5" customHeight="1">
       <c r="B30" s="4" t="s">
         <v>36</v>
       </c>
@@ -1696,7 +1171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" ht="40.5" customHeight="1" spans="2:6">
+    <row r="31" spans="2:6" ht="40.5" customHeight="1">
       <c r="B31" s="4" t="s">
         <v>38</v>
       </c>
@@ -1710,7 +1185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" ht="40.5" customHeight="1" spans="2:6">
+    <row r="32" spans="2:6" ht="40.5" customHeight="1">
       <c r="B32" s="4" t="s">
         <v>39</v>
       </c>
@@ -1724,7 +1199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" ht="40.5" customHeight="1" spans="2:6">
+    <row r="33" spans="2:6" ht="40.5" customHeight="1">
       <c r="B33" s="4" t="s">
         <v>40</v>
       </c>
@@ -1738,7 +1213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" ht="40.5" customHeight="1" spans="2:6">
+    <row r="34" spans="2:6" ht="40.5" customHeight="1">
       <c r="B34" s="4" t="s">
         <v>41</v>
       </c>
@@ -1752,7 +1227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" ht="40.5" customHeight="1" spans="2:6">
+    <row r="35" spans="2:6" ht="40.5" customHeight="1">
       <c r="B35" s="4" t="s">
         <v>42</v>
       </c>
@@ -1766,7 +1241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" ht="40.5" customHeight="1" spans="2:4">
+    <row r="36" spans="2:6" ht="40.5" customHeight="1">
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
@@ -1777,7 +1252,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" ht="40.5" customHeight="1" spans="2:4">
+    <row r="37" spans="2:6" ht="40.5" customHeight="1">
       <c r="B37" s="4" t="s">
         <v>45</v>
       </c>
@@ -1788,7 +1263,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" ht="40.5" customHeight="1" spans="2:4">
+    <row r="38" spans="2:6" ht="40.5" customHeight="1">
       <c r="B38" s="4" t="s">
         <v>46</v>
       </c>
@@ -1799,7 +1274,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" ht="40.5" customHeight="1" spans="2:4">
+    <row r="39" spans="2:6" ht="40.5" customHeight="1">
       <c r="B39" s="4" t="s">
         <v>47</v>
       </c>
@@ -1810,7 +1285,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" ht="40.5" customHeight="1" spans="2:4">
+    <row r="40" spans="2:6" ht="40.5" customHeight="1">
       <c r="B40" s="4" t="s">
         <v>48</v>
       </c>
@@ -1821,7 +1296,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" ht="40.5" customHeight="1" spans="2:4">
+    <row r="41" spans="2:6" ht="40.5" customHeight="1">
       <c r="B41" s="4" t="s">
         <v>49</v>
       </c>
@@ -1832,7 +1307,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" ht="40.5" customHeight="1" spans="2:4">
+    <row r="42" spans="2:6" ht="40.5" customHeight="1">
       <c r="B42" s="4" t="s">
         <v>50</v>
       </c>
@@ -1843,7 +1318,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" ht="40.5" customHeight="1" spans="2:4">
+    <row r="43" spans="2:6" ht="40.5" customHeight="1">
       <c r="B43" s="4" t="s">
         <v>51</v>
       </c>
@@ -1854,7 +1329,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" ht="40.5" customHeight="1" spans="2:4">
+    <row r="44" spans="2:6" ht="40.5" customHeight="1">
       <c r="B44" s="4" t="s">
         <v>52</v>
       </c>
@@ -1865,7 +1340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" ht="40.5" customHeight="1" spans="2:4">
+    <row r="45" spans="2:6" ht="40.5" customHeight="1">
       <c r="B45" s="4" t="s">
         <v>53</v>
       </c>
@@ -1876,7 +1351,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" ht="40.5" customHeight="1" spans="2:4">
+    <row r="46" spans="2:6" ht="40.5" customHeight="1">
       <c r="B46" s="4" t="s">
         <v>54</v>
       </c>
@@ -1887,7 +1362,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" ht="40.5" customHeight="1" spans="2:4">
+    <row r="47" spans="2:6" ht="40.5" customHeight="1">
       <c r="B47" s="4" t="s">
         <v>55</v>
       </c>
@@ -1898,7 +1373,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" ht="40.5" customHeight="1" spans="2:4">
+    <row r="48" spans="2:6" ht="40.5" customHeight="1">
       <c r="B48" s="4" t="s">
         <v>56</v>
       </c>
@@ -1909,7 +1384,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" ht="40.5" customHeight="1" spans="2:4">
+    <row r="49" spans="2:4" ht="40.5" customHeight="1">
       <c r="B49" s="4" t="s">
         <v>57</v>
       </c>
@@ -1920,7 +1395,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" ht="40.5" customHeight="1" spans="2:4">
+    <row r="50" spans="2:4" ht="40.5" customHeight="1">
       <c r="B50" s="4" t="s">
         <v>58</v>
       </c>
@@ -1931,7 +1406,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" ht="40.5" customHeight="1" spans="2:4">
+    <row r="51" spans="2:4" ht="40.5" customHeight="1">
       <c r="B51" s="4" t="s">
         <v>59</v>
       </c>
@@ -1942,7 +1417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" ht="44.25" customHeight="1" spans="2:4">
+    <row r="52" spans="2:4" ht="44.25" customHeight="1">
       <c r="B52" s="4" t="s">
         <v>60</v>
       </c>
@@ -1953,7 +1428,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" ht="44.25" customHeight="1" spans="2:4">
+    <row r="53" spans="2:4" ht="44.25" customHeight="1">
       <c r="B53" s="4" t="s">
         <v>61</v>
       </c>
@@ -1964,7 +1439,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" ht="44.25" customHeight="1" spans="2:4">
+    <row r="54" spans="2:4" ht="44.25" customHeight="1">
       <c r="B54" s="4" t="s">
         <v>62</v>
       </c>
@@ -1975,7 +1450,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" ht="44.25" customHeight="1" spans="2:4">
+    <row r="55" spans="2:4" ht="44.25" customHeight="1">
       <c r="B55" s="4" t="s">
         <v>63</v>
       </c>
@@ -1986,7 +1461,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" ht="44.25" customHeight="1" spans="2:4">
+    <row r="56" spans="2:4" ht="44.25" customHeight="1">
       <c r="B56" s="4" t="s">
         <v>64</v>
       </c>
@@ -1997,7 +1472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" ht="44.25" customHeight="1" spans="2:4">
+    <row r="57" spans="2:4" ht="44.25" customHeight="1">
       <c r="B57" s="4" t="s">
         <v>65</v>
       </c>
@@ -2008,7 +1483,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" ht="44.25" customHeight="1" spans="2:4">
+    <row r="58" spans="2:4" ht="44.25" customHeight="1">
       <c r="B58" s="4" t="s">
         <v>66</v>
       </c>
@@ -2019,7 +1494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" ht="44.25" customHeight="1" spans="2:4">
+    <row r="59" spans="2:4" ht="44.25" customHeight="1">
       <c r="B59" s="4" t="s">
         <v>67</v>
       </c>
@@ -2030,7 +1505,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" ht="44.25" customHeight="1" spans="2:4">
+    <row r="60" spans="2:4" ht="44.25" customHeight="1">
       <c r="B60" s="4" t="s">
         <v>68</v>
       </c>
@@ -2041,10 +1516,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" ht="44.25" customHeight="1"/>
-    <row r="62" ht="44.25" customHeight="1"/>
-    <row r="63" ht="44.25" customHeight="1"/>
-    <row r="64" ht="44.25" customHeight="1"/>
+    <row r="61" spans="2:4" ht="44.25" customHeight="1"/>
+    <row r="62" spans="2:4" ht="44.25" customHeight="1"/>
+    <row r="63" spans="2:4" ht="44.25" customHeight="1"/>
+    <row r="64" spans="2:4" ht="44.25" customHeight="1"/>
     <row r="65" ht="44.25" customHeight="1"/>
     <row r="66" ht="44.25" customHeight="1"/>
     <row r="67" ht="44.25" customHeight="1"/>
@@ -2217,8 +1692,10 @@
     <row r="234" ht="44.25" customHeight="1"/>
     <row r="235" ht="44.25" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H5:O15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Sprint 2/Sprint Backlog.xlsx
+++ b/Sprint 2/Sprint Backlog.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\Sprint 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864A39B0-3224-43BA-A69D-AB40A800C750}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815"/>
+    <workbookView xWindow="-15480" yWindow="1575" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="81">
   <si>
     <t>Tarefa</t>
   </si>
@@ -237,11 +243,44 @@
 O que vais fazer hoje:  Implementação testes e classe da classe enderecoPostal
 Dificuldades: nenhumas</t>
   </si>
+  <si>
+    <t>TDD RepositorioOrganizacao</t>
+  </si>
+  <si>
+    <t>TDD Website</t>
+  </si>
+  <si>
+    <t>TDD NIF</t>
+  </si>
+  <si>
+    <t>TDD Plataforma</t>
+  </si>
+  <si>
+    <t>TDD EnderecoPostal</t>
+  </si>
+  <si>
+    <t>TDD Email</t>
+  </si>
+  <si>
+    <t>TDD Colaborador</t>
+  </si>
+  <si>
+    <t>GRUPO</t>
+  </si>
+  <si>
+    <t>TDD Telefone</t>
+  </si>
+  <si>
+    <t>ANIBAL, PEDRO</t>
+  </si>
+  <si>
+    <t>JULIO, VITOR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -352,6 +391,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -614,11 +656,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:O235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1384,7 +1426,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="40.5" customHeight="1">
+    <row r="49" spans="2:6" ht="40.5" customHeight="1">
       <c r="B49" s="4" t="s">
         <v>57</v>
       </c>
@@ -1395,7 +1437,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="40.5" customHeight="1">
+    <row r="50" spans="2:6" ht="40.5" customHeight="1">
       <c r="B50" s="4" t="s">
         <v>58</v>
       </c>
@@ -1406,7 +1448,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="40.5" customHeight="1">
+    <row r="51" spans="2:6" ht="40.5" customHeight="1">
       <c r="B51" s="4" t="s">
         <v>59</v>
       </c>
@@ -1417,7 +1459,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="44.25" customHeight="1">
+    <row r="52" spans="2:6" ht="44.25" customHeight="1">
       <c r="B52" s="4" t="s">
         <v>60</v>
       </c>
@@ -1428,7 +1470,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="44.25" customHeight="1">
+    <row r="53" spans="2:6" ht="44.25" customHeight="1">
       <c r="B53" s="4" t="s">
         <v>61</v>
       </c>
@@ -1439,7 +1481,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="44.25" customHeight="1">
+    <row r="54" spans="2:6" ht="44.25" customHeight="1">
       <c r="B54" s="4" t="s">
         <v>62</v>
       </c>
@@ -1450,7 +1492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="44.25" customHeight="1">
+    <row r="55" spans="2:6" ht="44.25" customHeight="1">
       <c r="B55" s="4" t="s">
         <v>63</v>
       </c>
@@ -1461,7 +1503,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="44.25" customHeight="1">
+    <row r="56" spans="2:6" ht="44.25" customHeight="1">
       <c r="B56" s="4" t="s">
         <v>64</v>
       </c>
@@ -1472,7 +1514,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="44.25" customHeight="1">
+    <row r="57" spans="2:6" ht="44.25" customHeight="1">
       <c r="B57" s="4" t="s">
         <v>65</v>
       </c>
@@ -1483,7 +1525,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="44.25" customHeight="1">
+    <row r="58" spans="2:6" ht="44.25" customHeight="1">
       <c r="B58" s="4" t="s">
         <v>66</v>
       </c>
@@ -1494,7 +1536,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="44.25" customHeight="1">
+    <row r="59" spans="2:6" ht="44.25" customHeight="1">
       <c r="B59" s="4" t="s">
         <v>67</v>
       </c>
@@ -1505,7 +1547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="44.25" customHeight="1">
+    <row r="60" spans="2:6" ht="44.25" customHeight="1">
       <c r="B60" s="4" t="s">
         <v>68</v>
       </c>
@@ -1516,26 +1558,134 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="44.25" customHeight="1"/>
-    <row r="62" spans="2:4" ht="44.25" customHeight="1"/>
-    <row r="63" spans="2:4" ht="44.25" customHeight="1"/>
-    <row r="64" spans="2:4" ht="44.25" customHeight="1"/>
-    <row r="65" ht="44.25" customHeight="1"/>
-    <row r="66" ht="44.25" customHeight="1"/>
-    <row r="67" ht="44.25" customHeight="1"/>
-    <row r="68" ht="44.25" customHeight="1"/>
-    <row r="69" ht="44.25" customHeight="1"/>
-    <row r="70" ht="44.25" customHeight="1"/>
-    <row r="71" ht="44.25" customHeight="1"/>
-    <row r="72" ht="44.25" customHeight="1"/>
-    <row r="73" ht="44.25" customHeight="1"/>
-    <row r="74" ht="44.25" customHeight="1"/>
-    <row r="75" ht="44.25" customHeight="1"/>
-    <row r="76" ht="44.25" customHeight="1"/>
-    <row r="77" ht="44.25" customHeight="1"/>
-    <row r="78" ht="44.25" customHeight="1"/>
-    <row r="79" ht="44.25" customHeight="1"/>
-    <row r="80" ht="44.25" customHeight="1"/>
+    <row r="61" spans="2:6" ht="44.25" customHeight="1">
+      <c r="B61" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="4">
+        <v>3</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="2:6" ht="44.25" customHeight="1">
+      <c r="B62" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="4">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="2:6" ht="44.25" customHeight="1">
+      <c r="B63" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="44.25" customHeight="1">
+      <c r="B64" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="4">
+        <v>3</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="2:6" ht="44.25" customHeight="1">
+      <c r="B65" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="44.25" customHeight="1">
+      <c r="B66" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="4">
+        <v>2</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="2:6" ht="44.25" customHeight="1">
+      <c r="B67" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="4">
+        <v>3</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="2:6" ht="44.25" customHeight="1">
+      <c r="B68" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="44.25" customHeight="1">
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="2:6" ht="44.25" customHeight="1">
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="2:6" ht="44.25" customHeight="1"/>
+    <row r="72" spans="2:6" ht="44.25" customHeight="1"/>
+    <row r="73" spans="2:6" ht="44.25" customHeight="1"/>
+    <row r="74" spans="2:6" ht="44.25" customHeight="1"/>
+    <row r="75" spans="2:6" ht="44.25" customHeight="1"/>
+    <row r="76" spans="2:6" ht="44.25" customHeight="1"/>
+    <row r="77" spans="2:6" ht="44.25" customHeight="1"/>
+    <row r="78" spans="2:6" ht="44.25" customHeight="1"/>
+    <row r="79" spans="2:6" ht="44.25" customHeight="1"/>
+    <row r="80" spans="2:6" ht="44.25" customHeight="1"/>
     <row r="81" ht="44.25" customHeight="1"/>
     <row r="82" ht="44.25" customHeight="1"/>
     <row r="83" ht="44.25" customHeight="1"/>

--- a/Sprint 2/Sprint Backlog.xlsx
+++ b/Sprint 2/Sprint Backlog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="69">
   <si>
     <t>Tarefa</t>
   </si>
@@ -221,33 +221,25 @@
   </si>
   <si>
     <t>Criar ligação com API</t>
-  </si>
-  <si>
-    <t>Dia 28/01
-Vitor: O que fizeste ontem: UC3 - SD,SSD/UC5-SD,SSD
-O que vais fazer hoje: Implementação testes e classe da classe enderecoPostal
-Dificuldades: nenhumas
-Aníbal: O que fizeste ontem: UC2 - SD,SSD,DC/UC6-SD,SSD
-O que vais fazer hoje: Implementação testes e classe da classe telefone
-Dificuldades: nenhumas
-Pedro: O que fizeste ontem: Modelo Dominio/UC3,4,5,6 Excerto modelo Dominio e DC UC 3,4,5, Criação Projeto e SprintBacklog
-O que vais fazer hoje: Implementação testes e classe da classe telefone
-Dificuldades: nenhumas
-Júlio: O que fizeste ontem: UC1 - Documentação/UC4 - SD, SSD
-O que vais fazer hoje:  Implementação testes e classe da classe enderecoPostal
-Dificuldades: nenhumas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,22 +318,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,7 +613,7 @@
   <dimension ref="B4:O235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -662,16 +657,14 @@
       <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
     </row>
     <row r="6" spans="2:15" ht="40.5" customHeight="1">
       <c r="B6" s="4" t="s">
@@ -689,14 +682,14 @@
       <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
     </row>
     <row r="7" spans="2:15" ht="40.5" customHeight="1">
       <c r="B7" s="4" t="s">
@@ -714,14 +707,14 @@
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="2:15" ht="40.5" customHeight="1">
       <c r="B8" s="4" t="s">
@@ -739,14 +732,14 @@
       <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" spans="2:15" ht="40.5" customHeight="1">
       <c r="B9" s="4" t="s">
@@ -762,14 +755,14 @@
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="2:15" ht="40.5" customHeight="1">
       <c r="B10" s="4" t="s">
@@ -787,14 +780,14 @@
       <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
     </row>
     <row r="11" spans="2:15" ht="40.5" customHeight="1">
       <c r="B11" s="4" t="s">
@@ -812,14 +805,14 @@
       <c r="F11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
     </row>
     <row r="12" spans="2:15" ht="40.5" customHeight="1">
       <c r="B12" s="4" t="s">
@@ -837,14 +830,14 @@
       <c r="F12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
     </row>
     <row r="13" spans="2:15" ht="40.5" customHeight="1">
       <c r="B13" s="4" t="s">
@@ -862,14 +855,14 @@
       <c r="F13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" spans="2:15" ht="40.5" customHeight="1">
       <c r="B14" s="4" t="s">
@@ -887,14 +880,14 @@
       <c r="F14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
     </row>
     <row r="15" spans="2:15" ht="40.5" customHeight="1">
       <c r="B15" s="4" t="s">
@@ -912,14 +905,14 @@
       <c r="F15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
     </row>
     <row r="16" spans="2:15" ht="40.5" customHeight="1">
       <c r="B16" s="4" t="s">
@@ -1692,9 +1685,6 @@
     <row r="234" ht="44.25" customHeight="1"/>
     <row r="235" ht="44.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H5:O15"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Sprint 2/Sprint Backlog.xlsx
+++ b/Sprint 2/Sprint Backlog.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\Sprint 2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864A39B0-3224-43BA-A69D-AB40A800C750}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="1575" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="1575" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="80">
   <si>
     <t>Tarefa</t>
   </si>
@@ -227,21 +221,6 @@
   </si>
   <si>
     <t>Criar ligação com API</t>
-  </si>
-  <si>
-    <t>Dia 28/01
-Vitor: O que fizeste ontem: UC3 - SD,SSD/UC5-SD,SSD
-O que vais fazer hoje: Implementação testes e classe da classe enderecoPostal
-Dificuldades: nenhumas
-Aníbal: O que fizeste ontem: UC2 - SD,SSD,DC/UC6-SD,SSD
-O que vais fazer hoje: Implementação testes e classe da classe telefone
-Dificuldades: nenhumas
-Pedro: O que fizeste ontem: Modelo Dominio/UC3,4,5,6 Excerto modelo Dominio e DC UC 3,4,5, Criação Projeto e SprintBacklog
-O que vais fazer hoje: Implementação testes e classe da classe telefone
-Dificuldades: nenhumas
-Júlio: O que fizeste ontem: UC1 - Documentação/UC4 - SD, SSD
-O que vais fazer hoje:  Implementação testes e classe da classe enderecoPostal
-Dificuldades: nenhumas</t>
   </si>
   <si>
     <t>TDD RepositorioOrganizacao</t>
@@ -280,7 +259,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -380,7 +359,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,11 +635,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:O235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -704,9 +683,7 @@
       <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -1560,7 +1537,7 @@
     </row>
     <row r="61" spans="2:6" ht="44.25" customHeight="1">
       <c r="B61" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="4">
         <v>3</v>
@@ -1573,7 +1550,7 @@
     </row>
     <row r="62" spans="2:6" ht="44.25" customHeight="1">
       <c r="B62" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" s="4">
         <v>1</v>
@@ -1586,7 +1563,7 @@
     </row>
     <row r="63" spans="2:6" ht="44.25" customHeight="1">
       <c r="B63" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63" s="4">
         <v>1</v>
@@ -1598,12 +1575,12 @@
         <v>7</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="44.25" customHeight="1">
       <c r="B64" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C64" s="4">
         <v>3</v>
@@ -1616,7 +1593,7 @@
     </row>
     <row r="65" spans="2:6" ht="44.25" customHeight="1">
       <c r="B65" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65" s="4">
         <v>1</v>
@@ -1626,12 +1603,12 @@
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="44.25" customHeight="1">
       <c r="B66" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" s="4">
         <v>2</v>
@@ -1644,7 +1621,7 @@
     </row>
     <row r="67" spans="2:6" ht="44.25" customHeight="1">
       <c r="B67" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67" s="4">
         <v>3</v>
@@ -1657,7 +1634,7 @@
     </row>
     <row r="68" spans="2:6" ht="44.25" customHeight="1">
       <c r="B68" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="4">
         <v>1</v>
@@ -1667,7 +1644,7 @@
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="44.25" customHeight="1">
@@ -1842,9 +1819,6 @@
     <row r="234" ht="44.25" customHeight="1"/>
     <row r="235" ht="44.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H5:O15"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
